--- a/React_B10_G1(1).xlsx
+++ b/React_B10_G1(1).xlsx
@@ -11,7 +11,6 @@
     <sheet name="Jan-2024" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="12">
   <si>
     <t>Student Name</t>
   </si>
@@ -441,7 +440,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -451,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -504,9 +503,15 @@
       <c r="N1" s="4">
         <v>45307</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
+      <c r="O1" s="4">
+        <v>45308</v>
+      </c>
+      <c r="P1" s="4">
+        <v>45309</v>
+      </c>
+      <c r="Q1" s="4">
+        <v>45310</v>
+      </c>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
@@ -554,9 +559,15 @@
       <c r="N2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
+      <c r="O2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
@@ -604,9 +615,15 @@
       <c r="N3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
+      <c r="O3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
@@ -654,9 +671,15 @@
       <c r="N4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
+      <c r="O4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
@@ -704,9 +727,15 @@
       <c r="N5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
+      <c r="O5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
@@ -754,16 +783,22 @@
       <c r="N6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
+      <c r="O6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F6 H2:L6 N2:N6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F6 H2:L6 N2:P6">
       <formula1>"Present, Absent,Reason"</formula1>
     </dataValidation>
   </dataValidations>

--- a/React_B10_G1(1).xlsx
+++ b/React_B10_G1(1).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="12">
   <si>
     <t>Student Name</t>
   </si>
@@ -440,7 +440,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -450,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -512,7 +512,9 @@
       <c r="Q1" s="4">
         <v>45310</v>
       </c>
-      <c r="R1" s="5"/>
+      <c r="R1" s="4">
+        <v>45311</v>
+      </c>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
     </row>
@@ -568,7 +570,9 @@
       <c r="Q2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="7"/>
+      <c r="R2" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
     </row>
@@ -624,7 +628,9 @@
       <c r="Q3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="7"/>
+      <c r="R3" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
     </row>
@@ -680,7 +686,9 @@
       <c r="Q4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="7"/>
+      <c r="R4" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
     </row>
@@ -736,7 +744,9 @@
       <c r="Q5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="R5" s="7"/>
+      <c r="R5" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
     </row>
@@ -792,13 +802,15 @@
       <c r="Q6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="R6" s="7"/>
+      <c r="R6" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F6 H2:L6 N2:P6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F6 H2:L6 N2:P6 R2:R6">
       <formula1>"Present, Absent,Reason"</formula1>
     </dataValidation>
   </dataValidations>
